--- a/Feature_Engineering/Scaling.xlsx
+++ b/Feature_Engineering/Scaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4184E392-50C7-44C8-8FC8-0908C3251A45}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6DD6D1-AF3C-4D6B-83BD-58ECDAC92CF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,29 +25,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>Country</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Salary</t>
   </si>
   <si>
-    <t>Purchased</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>Spain</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -55,6 +43,9 @@
   </si>
   <si>
     <t>USA</t>
+  </si>
+  <si>
+    <t>Experience</t>
   </si>
 </sst>
 </file>
@@ -372,166 +363,136 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="C3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>43</v>
-      </c>
-      <c r="C2">
-        <v>72000</v>
-      </c>
-      <c r="D2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
+      <c r="C7">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>28</v>
-      </c>
-      <c r="C3">
-        <v>48000</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>3</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
+      <c r="C10">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4">
-        <v>54000</v>
-      </c>
-      <c r="D4" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>41</v>
-      </c>
-      <c r="C5">
-        <v>61000</v>
-      </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>43</v>
-      </c>
-      <c r="C6">
-        <v>34000</v>
-      </c>
-      <c r="D6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>37</v>
-      </c>
-      <c r="C7">
-        <v>58000</v>
-      </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8">
-        <v>80</v>
-      </c>
-      <c r="C8">
-        <v>52000</v>
-      </c>
-      <c r="D8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9">
-        <v>51</v>
-      </c>
-      <c r="C9">
-        <v>79000</v>
-      </c>
-      <c r="D9" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10">
-        <v>61</v>
-      </c>
-      <c r="C10">
-        <v>83000</v>
-      </c>
-      <c r="D10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>24</v>
-      </c>
       <c r="C11">
-        <v>67000</v>
-      </c>
-      <c r="D11" t="s">
-        <v>6</v>
+        <v>670</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_Engineering/Scaling.xlsx
+++ b/Feature_Engineering/Scaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6DD6D1-AF3C-4D6B-83BD-58ECDAC92CF7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333D515-7B9C-4C1B-BBE1-8B8730106527}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -393,7 +393,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>720</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -404,7 +404,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>480</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -415,7 +415,7 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>540</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -426,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>610</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -437,7 +437,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>340</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -448,7 +448,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>580</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -459,7 +459,7 @@
         <v>9</v>
       </c>
       <c r="C8">
-        <v>520</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>790</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -481,7 +481,7 @@
         <v>5</v>
       </c>
       <c r="C10">
-        <v>830</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -492,7 +492,7 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>670</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_Engineering/Scaling.xlsx
+++ b/Feature_Engineering/Scaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A333D515-7B9C-4C1B-BBE1-8B8730106527}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E28349F-C67F-4F0A-9D9A-10F957A50B82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -390,10 +390,10 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2">
-        <v>72</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
@@ -404,7 +404,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.35">
@@ -412,10 +412,10 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C4">
-        <v>54</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.35">
@@ -426,7 +426,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -437,7 +437,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -445,10 +445,10 @@
         <v>4</v>
       </c>
       <c r="B7">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7">
-        <v>58</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
@@ -456,10 +456,10 @@
         <v>2</v>
       </c>
       <c r="B8">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C8">
-        <v>52</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
@@ -467,10 +467,10 @@
         <v>5</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>79</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
@@ -478,10 +478,10 @@
         <v>3</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>83</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
@@ -489,10 +489,10 @@
         <v>5</v>
       </c>
       <c r="B11">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11">
-        <v>67</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_Engineering/Scaling.xlsx
+++ b/Feature_Engineering/Scaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E28349F-C67F-4F0A-9D9A-10F957A50B82}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA1FD89-942B-46AB-AA1C-A41CAB0059CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -366,7 +366,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -492,7 +492,7 @@
         <v>1</v>
       </c>
       <c r="C11">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_Engineering/Scaling.xlsx
+++ b/Feature_Engineering/Scaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA1FD89-942B-46AB-AA1C-A41CAB0059CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF4E7C-AD6F-4235-99C8-04CCE659BAFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,27 +25,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
-  <si>
-    <t>Country</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
   <si>
     <t>Salary</t>
   </si>
   <si>
-    <t>Spain</t>
+    <t>Experience</t>
   </si>
   <si>
-    <t>India</t>
+    <t>Country_Type</t>
   </si>
   <si>
-    <t>UK</t>
+    <t>Devloping</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>Experience</t>
+    <t>Developed</t>
   </si>
 </sst>
 </file>
@@ -363,135 +357,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>3</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>12</v>
+      </c>
+      <c r="C10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>5</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="B12">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>5</v>
+      </c>
+      <c r="B13">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-      <c r="C3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4">
-        <v>4</v>
-      </c>
-      <c r="C4">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>5</v>
-      </c>
-      <c r="C5">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>6</v>
-      </c>
-      <c r="C6">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7">
-        <v>6</v>
-      </c>
-      <c r="C7">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8">
-        <v>5</v>
-      </c>
-      <c r="C8">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9">
-        <v>3</v>
-      </c>
-      <c r="C9">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>3</v>
-      </c>
-      <c r="B10">
-        <v>2</v>
-      </c>
-      <c r="C10">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-      <c r="C11">
+      <c r="B16">
         <v>11</v>
       </c>
     </row>

--- a/Feature_Engineering/Scaling.xlsx
+++ b/Feature_Engineering/Scaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0EF4E7C-AD6F-4235-99C8-04CCE659BAFB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E8C276-7DCE-4A24-B92B-A90FE833AC8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -360,7 +360,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -495,7 +495,7 @@
         <v>4</v>
       </c>
       <c r="B12">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
@@ -503,7 +503,7 @@
         <v>5</v>
       </c>
       <c r="B13">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
@@ -511,7 +511,7 @@
         <v>3</v>
       </c>
       <c r="B14">
-        <v>10</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -519,7 +519,7 @@
         <v>2</v>
       </c>
       <c r="B15">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
@@ -527,7 +527,7 @@
         <v>1</v>
       </c>
       <c r="B16">
-        <v>11</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Feature_Engineering/Scaling.xlsx
+++ b/Feature_Engineering/Scaling.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\E\Github\Data_Files\Feature_Engineering\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5E8C276-7DCE-4A24-B92B-A90FE833AC8F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D964D27E-5A4C-46BF-9DD7-9AF86BE1AC24}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="5">
   <si>
     <t>Salary</t>
   </si>
@@ -360,7 +360,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,6 +497,9 @@
       <c r="B12">
         <v>37</v>
       </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13">
@@ -505,6 +508,9 @@
       <c r="B13">
         <v>21</v>
       </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14">
@@ -512,6 +518,9 @@
       </c>
       <c r="B14">
         <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
@@ -521,6 +530,9 @@
       <c r="B15">
         <v>16</v>
       </c>
+      <c r="C15" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16">
@@ -528,6 +540,9 @@
       </c>
       <c r="B16">
         <v>8</v>
+      </c>
+      <c r="C16" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
